--- a/results/mp/logistic/corona/confidence/210/0.2/avg_0.004_scores.xlsx
+++ b/results/mp/logistic/corona/confidence/210/0.2/avg_0.004_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="44">
   <si>
     <t>anchor score</t>
   </si>
@@ -55,106 +55,97 @@
     <t>no</t>
   </si>
   <si>
-    <t>co</t>
+    <t>negative</t>
+  </si>
+  <si>
+    <t>love</t>
+  </si>
+  <si>
+    <t>best</t>
+  </si>
+  <si>
+    <t>free</t>
+  </si>
+  <si>
+    <t>great</t>
+  </si>
+  <si>
+    <t>interesting</t>
+  </si>
+  <si>
+    <t>thank</t>
+  </si>
+  <si>
+    <t>hand</t>
+  </si>
+  <si>
+    <t>support</t>
+  </si>
+  <si>
+    <t>positive</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
+    <t>confidence</t>
+  </si>
+  <si>
+    <t>won</t>
+  </si>
+  <si>
+    <t>thanks</t>
+  </si>
+  <si>
+    <t>safe</t>
+  </si>
+  <si>
+    <t>heroes</t>
+  </si>
+  <si>
+    <t>special</t>
+  </si>
+  <si>
+    <t>fresh</t>
+  </si>
+  <si>
+    <t>better</t>
+  </si>
+  <si>
+    <t>join</t>
+  </si>
+  <si>
+    <t>like</t>
+  </si>
+  <si>
+    <t>gt</t>
+  </si>
+  <si>
+    <t>relief</t>
+  </si>
+  <si>
+    <t>please</t>
+  </si>
+  <si>
+    <t>share</t>
+  </si>
+  <si>
+    <t>help</t>
+  </si>
+  <si>
+    <t>well</t>
+  </si>
+  <si>
+    <t>care</t>
+  </si>
+  <si>
+    <t>hope</t>
+  </si>
+  <si>
+    <t>increase</t>
   </si>
   <si>
     <t>the</t>
-  </si>
-  <si>
-    <t>negative</t>
-  </si>
-  <si>
-    <t>love</t>
-  </si>
-  <si>
-    <t>free</t>
-  </si>
-  <si>
-    <t>best</t>
-  </si>
-  <si>
-    <t>great</t>
-  </si>
-  <si>
-    <t>support</t>
-  </si>
-  <si>
-    <t>hand</t>
-  </si>
-  <si>
-    <t>won</t>
-  </si>
-  <si>
-    <t>interesting</t>
-  </si>
-  <si>
-    <t>heroes</t>
-  </si>
-  <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>thanks</t>
-  </si>
-  <si>
-    <t>confidence</t>
-  </si>
-  <si>
-    <t>special</t>
-  </si>
-  <si>
-    <t>thank</t>
-  </si>
-  <si>
-    <t>positive</t>
-  </si>
-  <si>
-    <t>safe</t>
-  </si>
-  <si>
-    <t>save</t>
-  </si>
-  <si>
-    <t>fresh</t>
-  </si>
-  <si>
-    <t>better</t>
-  </si>
-  <si>
-    <t>relief</t>
-  </si>
-  <si>
-    <t>join</t>
-  </si>
-  <si>
-    <t>please</t>
-  </si>
-  <si>
-    <t>like</t>
-  </si>
-  <si>
-    <t>well</t>
-  </si>
-  <si>
-    <t>help</t>
-  </si>
-  <si>
-    <t>hope</t>
-  </si>
-  <si>
-    <t>share</t>
-  </si>
-  <si>
-    <t>care</t>
-  </si>
-  <si>
-    <t>increase</t>
-  </si>
-  <si>
-    <t>you</t>
-  </si>
-  <si>
-    <t>and</t>
   </si>
 </sst>
 </file>
@@ -512,7 +503,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q33"/>
+  <dimension ref="A1:Q32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -520,10 +511,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="J1" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -581,13 +572,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.7397260273972602</v>
+        <v>0.75</v>
       </c>
       <c r="C3">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="D3">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -599,10 +590,10 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="K3">
         <v>0.9347826086956522</v>
@@ -631,13 +622,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.4497354497354497</v>
+        <v>0.4391534391534391</v>
       </c>
       <c r="C4">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D4">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -649,19 +640,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="K4">
-        <v>0.925</v>
+        <v>0.9152542372881356</v>
       </c>
       <c r="L4">
-        <v>111</v>
+        <v>54</v>
       </c>
       <c r="M4">
-        <v>111</v>
+        <v>54</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -673,7 +664,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -681,13 +672,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.3565891472868217</v>
+        <v>0.3624031007751938</v>
       </c>
       <c r="C5">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="D5">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -699,19 +690,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="K5">
-        <v>0.8983050847457628</v>
+        <v>0.9</v>
       </c>
       <c r="L5">
-        <v>53</v>
+        <v>108</v>
       </c>
       <c r="M5">
-        <v>53</v>
+        <v>108</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -723,7 +714,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>6</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -731,13 +722,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.2013422818791946</v>
+        <v>0.2416107382550336</v>
       </c>
       <c r="C6">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="D6">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -749,19 +740,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="K6">
-        <v>0.8571428571428571</v>
+        <v>0.875</v>
       </c>
       <c r="L6">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="M6">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -773,7 +764,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -781,13 +772,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.1638888888888889</v>
+        <v>0.1555555555555556</v>
       </c>
       <c r="C7">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="D7">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -799,119 +790,71 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="J7" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="K7">
+        <v>0.8484848484848485</v>
+      </c>
+      <c r="L7">
+        <v>28</v>
+      </c>
+      <c r="M7">
+        <v>28</v>
+      </c>
+      <c r="N7">
+        <v>1</v>
+      </c>
+      <c r="O7">
+        <v>0</v>
+      </c>
+      <c r="P7" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
+      <c r="J8" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K8">
+        <v>0.828125</v>
+      </c>
+      <c r="L8">
+        <v>106</v>
+      </c>
+      <c r="M8">
+        <v>106</v>
+      </c>
+      <c r="N8">
+        <v>1</v>
+      </c>
+      <c r="O8">
+        <v>0</v>
+      </c>
+      <c r="P8" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q8">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
+      <c r="J9" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="K7">
-        <v>0.839622641509434</v>
-      </c>
-      <c r="L7">
-        <v>89</v>
-      </c>
-      <c r="M7">
-        <v>89</v>
-      </c>
-      <c r="N7">
-        <v>1</v>
-      </c>
-      <c r="O7">
-        <v>0</v>
-      </c>
-      <c r="P7" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q7">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
-      <c r="A8" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B8">
-        <v>0.008706868752015479</v>
-      </c>
-      <c r="C8">
-        <v>27</v>
-      </c>
-      <c r="D8">
-        <v>33</v>
-      </c>
-      <c r="E8">
-        <v>0.18</v>
-      </c>
-      <c r="F8">
-        <v>0.8200000000000001</v>
-      </c>
-      <c r="G8" t="b">
-        <v>1</v>
-      </c>
-      <c r="H8">
-        <v>3074</v>
-      </c>
-      <c r="J8" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="K8">
-        <v>0.8224543080939948</v>
-      </c>
-      <c r="L8">
-        <v>315</v>
-      </c>
-      <c r="M8">
-        <v>315</v>
-      </c>
-      <c r="N8">
-        <v>1</v>
-      </c>
-      <c r="O8">
-        <v>0</v>
-      </c>
-      <c r="P8" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q8">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
-      <c r="A9" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B9">
-        <v>0.00582977069568597</v>
-      </c>
-      <c r="C9">
-        <v>30</v>
-      </c>
-      <c r="D9">
-        <v>49</v>
-      </c>
-      <c r="E9">
-        <v>0.39</v>
-      </c>
-      <c r="F9">
-        <v>0.61</v>
-      </c>
-      <c r="G9" t="b">
-        <v>1</v>
-      </c>
-      <c r="H9">
-        <v>5116</v>
-      </c>
-      <c r="J9" s="1" t="s">
-        <v>22</v>
-      </c>
       <c r="K9">
-        <v>0.7948717948717948</v>
+        <v>0.8172323759791122</v>
       </c>
       <c r="L9">
-        <v>31</v>
+        <v>313</v>
       </c>
       <c r="M9">
-        <v>31</v>
+        <v>313</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -923,21 +866,21 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>8</v>
+        <v>70</v>
       </c>
     </row>
     <row r="10" spans="1:17">
       <c r="J10" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="K10">
-        <v>0.7878787878787878</v>
+        <v>0.8113207547169812</v>
       </c>
       <c r="L10">
-        <v>26</v>
+        <v>86</v>
       </c>
       <c r="M10">
-        <v>26</v>
+        <v>86</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -949,21 +892,21 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>7</v>
+        <v>20</v>
       </c>
     </row>
     <row r="11" spans="1:17">
       <c r="J11" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="K11">
-        <v>0.7872340425531915</v>
+        <v>0.8103448275862069</v>
       </c>
       <c r="L11">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="M11">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -975,21 +918,21 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="12" spans="1:17">
       <c r="J12" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="K12">
-        <v>0.78125</v>
+        <v>0.80625</v>
       </c>
       <c r="L12">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="M12">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1001,21 +944,21 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>35</v>
+        <v>31</v>
       </c>
     </row>
     <row r="13" spans="1:17">
       <c r="J13" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="K13">
-        <v>0.7804878048780488</v>
+        <v>0.8055555555555556</v>
       </c>
       <c r="L13">
-        <v>64</v>
+        <v>29</v>
       </c>
       <c r="M13">
-        <v>64</v>
+        <v>29</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1027,21 +970,21 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>18</v>
+        <v>7</v>
       </c>
     </row>
     <row r="14" spans="1:17">
       <c r="J14" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="K14">
-        <v>0.7777777777777778</v>
+        <v>0.7948717948717948</v>
       </c>
       <c r="L14">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="M14">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1058,16 +1001,16 @@
     </row>
     <row r="15" spans="1:17">
       <c r="J15" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="K15">
-        <v>0.7777777777777778</v>
+        <v>0.7804878048780488</v>
       </c>
       <c r="L15">
-        <v>28</v>
+        <v>64</v>
       </c>
       <c r="M15">
-        <v>28</v>
+        <v>64</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1079,21 +1022,21 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>8</v>
+        <v>18</v>
       </c>
     </row>
     <row r="16" spans="1:17">
       <c r="J16" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="K16">
-        <v>0.7734375</v>
+        <v>0.7676056338028169</v>
       </c>
       <c r="L16">
-        <v>99</v>
+        <v>109</v>
       </c>
       <c r="M16">
-        <v>99</v>
+        <v>109</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1105,21 +1048,21 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>29</v>
+        <v>33</v>
       </c>
     </row>
     <row r="17" spans="10:17">
       <c r="J17" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="K17">
-        <v>0.7586206896551724</v>
+        <v>0.723404255319149</v>
       </c>
       <c r="L17">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="M17">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1131,21 +1074,21 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="18" spans="10:17">
       <c r="J18" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="K18">
-        <v>0.7535211267605634</v>
+        <v>0.7222222222222222</v>
       </c>
       <c r="L18">
-        <v>107</v>
+        <v>26</v>
       </c>
       <c r="M18">
-        <v>107</v>
+        <v>26</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1157,21 +1100,21 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>35</v>
+        <v>10</v>
       </c>
     </row>
     <row r="19" spans="10:17">
       <c r="J19" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="K19">
-        <v>0.7142857142857143</v>
+        <v>0.7083333333333334</v>
       </c>
       <c r="L19">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="M19">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1183,21 +1126,21 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>10</v>
+        <v>14</v>
       </c>
     </row>
     <row r="20" spans="10:17">
       <c r="J20" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="K20">
-        <v>0.7083333333333334</v>
+        <v>0.6507936507936508</v>
       </c>
       <c r="L20">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="M20">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1209,21 +1152,21 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>14</v>
+        <v>22</v>
       </c>
     </row>
     <row r="21" spans="10:17">
       <c r="J21" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="K21">
-        <v>0.6984126984126984</v>
+        <v>0.6279069767441861</v>
       </c>
       <c r="L21">
-        <v>44</v>
+        <v>27</v>
       </c>
       <c r="M21">
-        <v>44</v>
+        <v>27</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1235,21 +1178,21 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="22" spans="10:17">
       <c r="J22" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="K22">
-        <v>0.68</v>
+        <v>0.6264705882352941</v>
       </c>
       <c r="L22">
-        <v>34</v>
+        <v>213</v>
       </c>
       <c r="M22">
-        <v>34</v>
+        <v>213</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1261,21 +1204,21 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>16</v>
+        <v>127</v>
       </c>
     </row>
     <row r="23" spans="10:17">
       <c r="J23" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="K23">
-        <v>0.6744186046511628</v>
+        <v>0.625</v>
       </c>
       <c r="L23">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="M23">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1287,21 +1230,21 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="24" spans="10:17">
       <c r="J24" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="K24">
-        <v>0.602510460251046</v>
+        <v>0.62</v>
       </c>
       <c r="L24">
-        <v>144</v>
+        <v>31</v>
       </c>
       <c r="M24">
-        <v>144</v>
+        <v>31</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1313,21 +1256,21 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>95</v>
+        <v>19</v>
       </c>
     </row>
     <row r="25" spans="10:17">
       <c r="J25" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="K25">
-        <v>0.5882352941176471</v>
+        <v>0.5941422594142259</v>
       </c>
       <c r="L25">
-        <v>200</v>
+        <v>142</v>
       </c>
       <c r="M25">
-        <v>200</v>
+        <v>142</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1339,21 +1282,21 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>140</v>
+        <v>97</v>
       </c>
     </row>
     <row r="26" spans="10:17">
       <c r="J26" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="K26">
-        <v>0.5851063829787234</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="L26">
-        <v>55</v>
+        <v>40</v>
       </c>
       <c r="M26">
-        <v>55</v>
+        <v>40</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1365,21 +1308,21 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>39</v>
+        <v>30</v>
       </c>
     </row>
     <row r="27" spans="10:17">
       <c r="J27" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="K27">
-        <v>0.5559322033898305</v>
+        <v>0.5661016949152542</v>
       </c>
       <c r="L27">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="M27">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1391,21 +1334,21 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>131</v>
+        <v>128</v>
       </c>
     </row>
     <row r="28" spans="10:17">
       <c r="J28" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="K28">
-        <v>0.5384615384615384</v>
+        <v>0.5425531914893617</v>
       </c>
       <c r="L28">
-        <v>35</v>
+        <v>51</v>
       </c>
       <c r="M28">
-        <v>35</v>
+        <v>51</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -1417,21 +1360,21 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>30</v>
+        <v>43</v>
       </c>
     </row>
     <row r="29" spans="10:17">
       <c r="J29" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="K29">
-        <v>0.5</v>
+        <v>0.5168539325842697</v>
       </c>
       <c r="L29">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="M29">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -1443,21 +1386,21 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>35</v>
+        <v>43</v>
       </c>
     </row>
     <row r="30" spans="10:17">
       <c r="J30" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K30">
-        <v>0.4831460674157304</v>
+        <v>0.5076923076923077</v>
       </c>
       <c r="L30">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="M30">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -1469,12 +1412,12 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>46</v>
+        <v>32</v>
       </c>
     </row>
     <row r="31" spans="10:17">
       <c r="J31" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="K31">
         <v>0.3205128205128205</v>
@@ -1500,54 +1443,28 @@
     </row>
     <row r="32" spans="10:17">
       <c r="J32" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K32">
-        <v>0.02335279399499583</v>
+        <v>0.005441119315973571</v>
       </c>
       <c r="L32">
         <v>28</v>
       </c>
       <c r="M32">
-        <v>29</v>
+        <v>47</v>
       </c>
       <c r="N32">
-        <v>0.97</v>
+        <v>0.6</v>
       </c>
       <c r="O32">
-        <v>0.03000000000000003</v>
+        <v>0.4</v>
       </c>
       <c r="P32" t="b">
         <v>1</v>
       </c>
       <c r="Q32">
-        <v>1171</v>
-      </c>
-    </row>
-    <row r="33" spans="10:17">
-      <c r="J33" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="K33">
-        <v>0.009384384384384385</v>
-      </c>
-      <c r="L33">
-        <v>25</v>
-      </c>
-      <c r="M33">
-        <v>34</v>
-      </c>
-      <c r="N33">
-        <v>0.74</v>
-      </c>
-      <c r="O33">
-        <v>0.26</v>
-      </c>
-      <c r="P33" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q33">
-        <v>2639</v>
+        <v>5118</v>
       </c>
     </row>
   </sheetData>
